--- a/Exhibits/Cancel Exhibit Contract and Add Cancellation Fee/Main.rvl.xlsx
+++ b/Exhibits/Cancel Exhibit Contract and Add Cancellation Fee/Main.rvl.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="78">
   <si>
     <t>Flow</t>
   </si>
@@ -193,6 +193,60 @@
   </si>
   <si>
     <t>10000</t>
+  </si>
+  <si>
+    <t>DoLoadObjects</t>
+  </si>
+  <si>
+    <t>objectsFilePath</t>
+  </si>
+  <si>
+    <t>C:\UX365RegressionTest\Objects.js</t>
+  </si>
+  <si>
+    <t>Navigator</t>
+  </si>
+  <si>
+    <t>Navigate</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>variable</t>
+  </si>
+  <si>
+    <t>g_org</t>
+  </si>
+  <si>
+    <t>G_OpenAreaList</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>defaultValue</t>
+  </si>
+  <si>
+    <t>https://ux365teammember.crm.dynamics.com/main.aspx?appid=a46f6884-dcb2-e911-a97f-000d3a1c5cc0&amp;pagetype=dashboard&amp;id=f14fba57-096d-e511-80cc-00155da80b0d&amp;type=system&amp;_canOverride=true</t>
+  </si>
+  <si>
+    <t>***Test cancels Meeting Registration identified in the MeetingData spreadsheet.</t>
+  </si>
+  <si>
+    <t>****Value for g_testname must be defined to determine row in the spreadsheet for values and objects.</t>
+  </si>
+  <si>
+    <t>*****Test must already be in an invoice that contains the Meeting Registration with batch selected.</t>
+  </si>
+  <si>
+    <t>***Test cancels Exhibit Contract and applies a cancellation fee.</t>
+  </si>
+  <si>
+    <t>*****Test must already be in an invoice that contains an Exhibit Contract with batch selected.</t>
+  </si>
+  <si>
+    <t>Open Exhibit Contract.</t>
   </si>
 </sst>
 </file>
@@ -213,7 +267,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="190">
+  <borders count="200">
     <border>
       <left/>
       <right/>
@@ -410,11 +464,21 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="190">
+  <cellXfs count="200">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0"/>
@@ -605,6 +669,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="187" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="188" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="189" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="190" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="191" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="192" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="193" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="194" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="195" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="196" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="197" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="198" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="199" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -614,7 +688,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:H50"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.5546875" customWidth="true"/>
@@ -654,52 +728,37 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="9"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="16"/>
+      <c r="A2" s="195"/>
+      <c r="B2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="24"/>
+      <c r="A3" s="194"/>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="182"/>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s">
-        <v>44</v>
-      </c>
+      <c r="A4" s="193"/>
     </row>
     <row r="5">
-      <c r="A5" s="177"/>
+      <c r="A5" s="192"/>
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -707,52 +766,67 @@
         <v>15</v>
       </c>
       <c r="D5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="191" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="190"/>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
         <v>16</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E7" t="s">
         <v>17</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F7" t="s">
         <v>18</v>
       </c>
-      <c r="G5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="178"/>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="179"/>
+      <c r="G7" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="176" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>43</v>
-      </c>
+      <c r="A8" s="199"/>
     </row>
     <row r="9">
-      <c r="A9" s="181"/>
+      <c r="A9" s="198"/>
       <c r="B9" t="s">
         <v>3</v>
       </c>
@@ -769,433 +843,573 @@
         <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="180"/>
+      <c r="A10" s="196"/>
       <c r="B10" t="s">
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="D10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="F10" t="s">
         <v>13</v>
       </c>
       <c r="G10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="9"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="16"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="19"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="24"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="182"/>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="177"/>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="178"/>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="179"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="176" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="175"/>
-      <c r="B11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" t="s">
+    <row r="18">
+      <c r="A18" s="181"/>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="180"/>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
         <v>10</v>
       </c>
-      <c r="D11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="D19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" t="s">
         <v>12</v>
-      </c>
-      <c r="F11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="174"/>
-      <c r="B12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="173"/>
-      <c r="B13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="171"/>
-      <c r="B14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="187"/>
-      <c r="B15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="170"/>
-      <c r="B16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" t="s">
-        <v>28</v>
-      </c>
-      <c r="G16" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="189"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="168" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="183"/>
-      <c r="B19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" t="s">
-        <v>50</v>
-      </c>
-      <c r="E19" t="s">
-        <v>51</v>
       </c>
       <c r="F19" t="s">
         <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="167"/>
+      <c r="A20" s="175"/>
       <c r="B20" t="s">
         <v>3</v>
       </c>
       <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="174"/>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
         <v>15</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D21" t="s">
         <v>16</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E21" t="s">
         <v>17</v>
-      </c>
-      <c r="F20" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="166"/>
-      <c r="B21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" t="s">
-        <v>33</v>
       </c>
       <c r="F21" t="s">
         <v>18</v>
       </c>
       <c r="G21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="173"/>
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="171"/>
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="187"/>
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="170"/>
+      <c r="B25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" t="s">
+        <v>28</v>
+      </c>
+      <c r="G25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="189"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="168" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="183"/>
+      <c r="B28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" t="s">
+        <v>50</v>
+      </c>
+      <c r="E28" t="s">
+        <v>51</v>
+      </c>
+      <c r="F28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="167"/>
+      <c r="B29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="166"/>
+      <c r="B30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" t="s">
+        <v>33</v>
+      </c>
+      <c r="F30" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="165"/>
-      <c r="B22" t="s">
+    <row r="31">
+      <c r="A31" s="165"/>
+      <c r="B31" t="s">
         <v>35</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E31" t="s">
         <v>36</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F31" t="s">
         <v>13</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G31" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="164"/>
-      <c r="B23" t="s">
+    <row r="32">
+      <c r="A32" s="164"/>
+      <c r="B32" t="s">
         <v>35</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E32" t="s">
         <v>38</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F32" t="s">
         <v>13</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G32" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="163"/>
-      <c r="B24" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" t="s">
+    <row r="33">
+      <c r="A33" s="163"/>
+      <c r="B33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" t="s">
         <v>10</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D33" t="s">
         <v>32</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E33" t="s">
         <v>33</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F33" t="s">
         <v>18</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G33" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="162"/>
-      <c r="B25" t="s">
+    <row r="34">
+      <c r="A34" s="162"/>
+      <c r="B34" t="s">
         <v>35</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E34" t="s">
         <v>36</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F34" t="s">
         <v>13</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G34" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="161"/>
-      <c r="B26" t="s">
+    <row r="35">
+      <c r="A35" s="161"/>
+      <c r="B35" t="s">
         <v>35</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E35" t="s">
         <v>38</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F35" t="s">
         <v>13</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G35" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="33"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="40"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="41"/>
-      <c r="B28" s="42"/>
-      <c r="C28" s="43"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="47"/>
-      <c r="H28" s="48"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="49"/>
-      <c r="B29" s="50"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="52"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="56"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="65"/>
-      <c r="B30" s="66"/>
-      <c r="C30" s="67"/>
-      <c r="D30" s="68"/>
-      <c r="E30" s="69"/>
-      <c r="F30" s="70"/>
-      <c r="G30" s="71"/>
-      <c r="H30" s="72"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="73"/>
-      <c r="B31" s="74"/>
-      <c r="C31" s="75"/>
-      <c r="D31" s="76"/>
-      <c r="E31" s="77"/>
-      <c r="F31" s="78"/>
-      <c r="G31" s="79"/>
-      <c r="H31" s="80"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="81"/>
-      <c r="B32" s="82"/>
-      <c r="C32" s="83"/>
-      <c r="D32" s="84"/>
-      <c r="E32" s="85"/>
-      <c r="F32" s="86"/>
-      <c r="G32" s="87"/>
-      <c r="H32" s="88"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="89"/>
-      <c r="B33" s="90"/>
-      <c r="C33" s="91"/>
-      <c r="D33" s="92"/>
-      <c r="E33" s="93"/>
-      <c r="F33" s="94"/>
-      <c r="G33" s="95"/>
-      <c r="H33" s="96"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="97"/>
-      <c r="B34" s="98"/>
-      <c r="C34" s="99"/>
-      <c r="D34" s="100"/>
-      <c r="E34" s="101"/>
-      <c r="F34" s="102"/>
-      <c r="G34" s="103"/>
-      <c r="H34" s="104"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="105"/>
-      <c r="B35" s="106"/>
-      <c r="C35" s="107"/>
-      <c r="D35" s="108"/>
-      <c r="E35" s="109"/>
-      <c r="F35" s="110"/>
-      <c r="G35" s="111"/>
-      <c r="H35" s="112"/>
-    </row>
     <row r="36">
-      <c r="A36" s="113"/>
-      <c r="B36" s="114"/>
-      <c r="C36" s="115"/>
-      <c r="D36" s="116"/>
-      <c r="E36" s="117"/>
-      <c r="F36" s="118"/>
-      <c r="G36" s="119"/>
-      <c r="H36" s="120"/>
+      <c r="A36" s="33"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="39"/>
+      <c r="H36" s="40"/>
     </row>
     <row r="37">
-      <c r="A37" s="121"/>
-      <c r="B37" s="122"/>
-      <c r="C37" s="123"/>
-      <c r="D37" s="124"/>
-      <c r="E37" s="125"/>
-      <c r="F37" s="126"/>
-      <c r="G37" s="127"/>
-      <c r="H37" s="128"/>
+      <c r="A37" s="41"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="46"/>
+      <c r="G37" s="47"/>
+      <c r="H37" s="48"/>
     </row>
     <row r="38">
-      <c r="A38" s="129"/>
-      <c r="B38" s="130"/>
-      <c r="C38" s="131"/>
-      <c r="D38" s="132"/>
-      <c r="E38" s="133"/>
-      <c r="F38" s="134"/>
-      <c r="G38" s="135"/>
-      <c r="H38" s="136"/>
+      <c r="A38" s="49"/>
+      <c r="B38" s="50"/>
+      <c r="C38" s="51"/>
+      <c r="D38" s="52"/>
+      <c r="E38" s="53"/>
+      <c r="F38" s="54"/>
+      <c r="G38" s="55"/>
+      <c r="H38" s="56"/>
     </row>
     <row r="39">
-      <c r="A39" s="137"/>
-      <c r="B39" s="138"/>
-      <c r="C39" s="139"/>
-      <c r="D39" s="140"/>
-      <c r="E39" s="141"/>
-      <c r="F39" s="142"/>
-      <c r="G39" s="143"/>
-      <c r="H39" s="144"/>
+      <c r="A39" s="65"/>
+      <c r="B39" s="66"/>
+      <c r="C39" s="67"/>
+      <c r="D39" s="68"/>
+      <c r="E39" s="69"/>
+      <c r="F39" s="70"/>
+      <c r="G39" s="71"/>
+      <c r="H39" s="72"/>
     </row>
     <row r="40">
-      <c r="A40" s="145"/>
-      <c r="B40" s="146"/>
-      <c r="C40" s="147"/>
-      <c r="D40" s="148"/>
-      <c r="E40" s="149"/>
-      <c r="F40" s="150"/>
-      <c r="G40" s="151"/>
-      <c r="H40" s="152"/>
+      <c r="A40" s="73"/>
+      <c r="B40" s="74"/>
+      <c r="C40" s="75"/>
+      <c r="D40" s="76"/>
+      <c r="E40" s="77"/>
+      <c r="F40" s="78"/>
+      <c r="G40" s="79"/>
+      <c r="H40" s="80"/>
     </row>
     <row r="41">
-      <c r="A41" s="153"/>
-      <c r="B41" s="154"/>
-      <c r="C41" s="155"/>
-      <c r="D41" s="156"/>
-      <c r="E41" s="157"/>
-      <c r="F41" s="158"/>
-      <c r="G41" s="159"/>
-      <c r="H41" s="160"/>
+      <c r="A41" s="81"/>
+      <c r="B41" s="82"/>
+      <c r="C41" s="83"/>
+      <c r="D41" s="84"/>
+      <c r="E41" s="85"/>
+      <c r="F41" s="86"/>
+      <c r="G41" s="87"/>
+      <c r="H41" s="88"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="89"/>
+      <c r="B42" s="90"/>
+      <c r="C42" s="91"/>
+      <c r="D42" s="92"/>
+      <c r="E42" s="93"/>
+      <c r="F42" s="94"/>
+      <c r="G42" s="95"/>
+      <c r="H42" s="96"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="97"/>
+      <c r="B43" s="98"/>
+      <c r="C43" s="99"/>
+      <c r="D43" s="100"/>
+      <c r="E43" s="101"/>
+      <c r="F43" s="102"/>
+      <c r="G43" s="103"/>
+      <c r="H43" s="104"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="105"/>
+      <c r="B44" s="106"/>
+      <c r="C44" s="107"/>
+      <c r="D44" s="108"/>
+      <c r="E44" s="109"/>
+      <c r="F44" s="110"/>
+      <c r="G44" s="111"/>
+      <c r="H44" s="112"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="113"/>
+      <c r="B45" s="114"/>
+      <c r="C45" s="115"/>
+      <c r="D45" s="116"/>
+      <c r="E45" s="117"/>
+      <c r="F45" s="118"/>
+      <c r="G45" s="119"/>
+      <c r="H45" s="120"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="121"/>
+      <c r="B46" s="122"/>
+      <c r="C46" s="123"/>
+      <c r="D46" s="124"/>
+      <c r="E46" s="125"/>
+      <c r="F46" s="126"/>
+      <c r="G46" s="127"/>
+      <c r="H46" s="128"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="129"/>
+      <c r="B47" s="130"/>
+      <c r="C47" s="131"/>
+      <c r="D47" s="132"/>
+      <c r="E47" s="133"/>
+      <c r="F47" s="134"/>
+      <c r="G47" s="135"/>
+      <c r="H47" s="136"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="137"/>
+      <c r="B48" s="138"/>
+      <c r="C48" s="139"/>
+      <c r="D48" s="140"/>
+      <c r="E48" s="141"/>
+      <c r="F48" s="142"/>
+      <c r="G48" s="143"/>
+      <c r="H48" s="144"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="145"/>
+      <c r="B49" s="146"/>
+      <c r="C49" s="147"/>
+      <c r="D49" s="148"/>
+      <c r="E49" s="149"/>
+      <c r="F49" s="150"/>
+      <c r="G49" s="151"/>
+      <c r="H49" s="152"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="153"/>
+      <c r="B50" s="154"/>
+      <c r="C50" s="155"/>
+      <c r="D50" s="156"/>
+      <c r="E50" s="157"/>
+      <c r="F50" s="158"/>
+      <c r="G50" s="159"/>
+      <c r="H50" s="160"/>
     </row>
   </sheetData>
 </worksheet>
